--- a/Mobil alkalmazásfejlesztés projektmunka pontozás.xlsx
+++ b/Mobil alkalmazásfejlesztés projektmunka pontozás.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\prog\android\healthcare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BE529-46D5-4E84-9C95-F540906E0C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F35366-002C-4FF2-84FC-350BC2CC5EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Munka1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
     <col min="3" max="3" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -719,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -730,7 +730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
